--- a/biology/Biochimie/GMP-AMP_cyclique_synthase/GMP-AMP_cyclique_synthase.xlsx
+++ b/biology/Biochimie/GMP-AMP_cyclique_synthase/GMP-AMP_cyclique_synthase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La GMP-AMP cyclique synthase, ou cGAS, est une nucléotidyltransférase qui catalyse la double condensation d'une molécule d'ATP avec une molécule de GTP pour former une molécule de GMP-AMP cyclique (GAMPc) avec élimination de deux anions pyrophosphate P2O74−.
 			Structure du GMP-AMP cyclique.
 La cGAS se lie directement à l'ADN bicaténaire cytosolique à l'aide de ses résidus d'acides aminés chargés positivement qui interagissent avec les anions phosphate de l'ADN. Les mutations affectant ces résidus chargés positivement abolissent complètement la capacité de cGAS à se lier à l'ADN. La liaison de la cGAS à l'ADN provoque la dimérisation de l'enzyme. Celle-ci subit un changement conformationnel qui ouvre la poche de liaison aux substrats nucléotidiques, ce qui permet au GTP et à l'ATP d'y entrer. C'est dans ce site actif que les deux réactions de condensation successives se déroulent, pour former le dinucléotide GAMPc.
-La cGAS agit comme un détecteur cytosolique d'ADN, qui active la production d'interférons de type I lorsque de l'ADN bicaténaire est présent dans le cytosol de la cellule. Elle est située au niveau de la membrane plasmique[2] et participe à la détection de l'ADN cytosolique par la voie cGAS-STING. Elle se lie à l'ADN présent dans le cytoplasme, qu'il s'agisse d'ADN microbien ou d'ADN nucléaire de la cellule elle-même, et catalyse la formation de GMP-AMP cyclique[3] (GAMPc). Ce dernier agit comme un second messager qui se lie à la protéine STING du réticulum endoplasmique pour déclencher la production d'interférons de type I[4],[5],[6]. Les souris dépourvues de GMP-AMP cyclique synthase sont plus vulnérables aux infections létales par les virus à ADN[7]. La GMP-AMP cyclique synthase ne produit pas de GAMPc en présence d'ARN.
-On a par ailleurs établi que cette enzyme est également un détecteur du système immunitaire inné contre les rétrovirus, y compris le VIH[8],[9].
+La cGAS agit comme un détecteur cytosolique d'ADN, qui active la production d'interférons de type I lorsque de l'ADN bicaténaire est présent dans le cytosol de la cellule. Elle est située au niveau de la membrane plasmique et participe à la détection de l'ADN cytosolique par la voie cGAS-STING. Elle se lie à l'ADN présent dans le cytoplasme, qu'il s'agisse d'ADN microbien ou d'ADN nucléaire de la cellule elle-même, et catalyse la formation de GMP-AMP cyclique (GAMPc). Ce dernier agit comme un second messager qui se lie à la protéine STING du réticulum endoplasmique pour déclencher la production d'interférons de type I. Les souris dépourvues de GMP-AMP cyclique synthase sont plus vulnérables aux infections létales par les virus à ADN. La GMP-AMP cyclique synthase ne produit pas de GAMPc en présence d'ARN.
+On a par ailleurs établi que cette enzyme est également un détecteur du système immunitaire inné contre les rétrovirus, y compris le VIH,.
 </t>
         </is>
       </c>
